--- a/Code/Results/Cases/Case_1_226/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_226/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9976019791808994</v>
+        <v>0.9753132958449271</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05667883361360992</v>
+        <v>0.03331992211473533</v>
       </c>
       <c r="E2">
-        <v>0.1562243315628855</v>
+        <v>0.3424319813764996</v>
       </c>
       <c r="F2">
-        <v>0.5767231605740548</v>
+        <v>0.8193982407045368</v>
       </c>
       <c r="G2">
-        <v>0.0008033812485148829</v>
+        <v>0.002439946514007917</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.38033295070619</v>
+        <v>0.4212605303673342</v>
       </c>
       <c r="L2">
-        <v>0.2908115293200808</v>
+        <v>0.1333941180518678</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.728417205214015</v>
+        <v>2.857116685996772</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8864494160750382</v>
+        <v>0.9491538420964787</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05196153380416035</v>
+        <v>0.0316309631125975</v>
       </c>
       <c r="E3">
-        <v>0.160852242482628</v>
+        <v>0.3456736679843964</v>
       </c>
       <c r="F3">
-        <v>0.5443919184588566</v>
+        <v>0.8172262884772081</v>
       </c>
       <c r="G3">
-        <v>0.0008073646093771016</v>
+        <v>0.002442555695383798</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.223542741715193</v>
+        <v>0.3704118873006621</v>
       </c>
       <c r="L3">
-        <v>0.2523307561471171</v>
+        <v>0.1226253742858887</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.670540335376387</v>
+        <v>2.864074215073288</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8190091017867758</v>
+        <v>0.9335441425416207</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04905451182002452</v>
+        <v>0.03058441056181493</v>
       </c>
       <c r="E4">
-        <v>0.1639383732574107</v>
+        <v>0.3478060213873846</v>
       </c>
       <c r="F4">
-        <v>0.5256743700077067</v>
+        <v>0.8164108716804606</v>
       </c>
       <c r="G4">
-        <v>0.0008098916193442495</v>
+        <v>0.002444244022874557</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.127177851455031</v>
+        <v>0.3390339527621506</v>
       </c>
       <c r="L4">
-        <v>0.2288429121997808</v>
+        <v>0.116058604185767</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.638709072980589</v>
+        <v>2.870070639630171</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7917129224903476</v>
+        <v>0.9272972728535933</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04786699298955455</v>
+        <v>0.03015556080625004</v>
       </c>
       <c r="E5">
-        <v>0.1652561988556727</v>
+        <v>0.3487106935762103</v>
       </c>
       <c r="F5">
-        <v>0.5183163280524781</v>
+        <v>0.8162088370362426</v>
       </c>
       <c r="G5">
-        <v>0.0008109421951253403</v>
+        <v>0.002444953790356842</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.087872030640682</v>
+        <v>0.3262084976456379</v>
       </c>
       <c r="L5">
-        <v>0.2193011931287714</v>
+        <v>0.1133940718436008</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.626622414855149</v>
+        <v>2.872947636668414</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.787191189513635</v>
+        <v>0.9262668968257231</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0476696260186884</v>
+        <v>0.03008420813225854</v>
       </c>
       <c r="E6">
-        <v>0.16547862199638</v>
+        <v>0.348863071970797</v>
       </c>
       <c r="F6">
-        <v>0.5171103661245695</v>
+        <v>0.8161831550903855</v>
       </c>
       <c r="G6">
-        <v>0.0008111179093580524</v>
+        <v>0.0024450729628576</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.081342785860073</v>
+        <v>0.324076524456558</v>
       </c>
       <c r="L6">
-        <v>0.2177184461544641</v>
+        <v>0.1129523243910882</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.624667549752331</v>
+        <v>2.87345152978375</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8186402432568798</v>
+        <v>0.9334594320140468</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04903850848491942</v>
+        <v>0.03057863651228132</v>
       </c>
       <c r="E7">
-        <v>0.1639559038295655</v>
+        <v>0.3478180774433497</v>
       </c>
       <c r="F7">
-        <v>0.5255740657390504</v>
+        <v>0.8164076196358252</v>
       </c>
       <c r="G7">
-        <v>0.0008099057032017327</v>
+        <v>0.002444253506908039</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.126647922425605</v>
+        <v>0.3388611399170429</v>
       </c>
       <c r="L7">
-        <v>0.2287141155184713</v>
+        <v>0.1160226227649588</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.638542545669736</v>
+        <v>2.87010768528512</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9590984697490796</v>
+        <v>0.9661999116491415</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05505436388634877</v>
+        <v>0.03273955983978283</v>
       </c>
       <c r="E8">
-        <v>0.1577684749815251</v>
+        <v>0.3435202711259695</v>
       </c>
       <c r="F8">
-        <v>0.5653303318564014</v>
+        <v>0.8185417759568097</v>
       </c>
       <c r="G8">
-        <v>0.0008047380889673008</v>
+        <v>0.002440828291598722</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.326283631137869</v>
+        <v>0.4037608382500082</v>
       </c>
       <c r="L8">
-        <v>0.2775111044695819</v>
+        <v>0.1296717092103279</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.707663219722406</v>
+        <v>2.859157584940334</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.241764572058656</v>
+        <v>1.033976342087897</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06677894500446513</v>
+        <v>0.0369006808469976</v>
       </c>
       <c r="E9">
-        <v>0.1476368033456108</v>
+        <v>0.3362172770820973</v>
       </c>
       <c r="F9">
-        <v>0.6530386954535174</v>
+        <v>0.8268417317479688</v>
       </c>
       <c r="G9">
-        <v>0.0007952307264940678</v>
+        <v>0.002434793086831311</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.717635524693293</v>
+        <v>0.5297610944564042</v>
       </c>
       <c r="L9">
-        <v>0.3745677819258475</v>
+        <v>0.1567941721438189</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.874854497655065</v>
+        <v>2.85138073124628</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.455074561413028</v>
+        <v>1.085933833380437</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07536682933923089</v>
+        <v>0.03991036568707074</v>
       </c>
       <c r="E10">
-        <v>0.1415029887276802</v>
+        <v>0.331535789340105</v>
       </c>
       <c r="F10">
-        <v>0.7245303507332324</v>
+        <v>0.8354550928174831</v>
       </c>
       <c r="G10">
-        <v>0.0007886007976943126</v>
+        <v>0.002430770420744921</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.006036111517801</v>
+        <v>0.6215360972941255</v>
       </c>
       <c r="L10">
-        <v>0.4470982117228885</v>
+        <v>0.1769370486204025</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.020310762899982</v>
+        <v>2.854039583176956</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.553632641388646</v>
+        <v>1.110037216949991</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07927241252827599</v>
+        <v>0.04126906689613463</v>
       </c>
       <c r="E11">
-        <v>0.1390181829988464</v>
+        <v>0.3295542063013048</v>
       </c>
       <c r="F11">
-        <v>0.7588501959114637</v>
+        <v>0.8399213124744023</v>
       </c>
       <c r="G11">
-        <v>0.0007856554970015902</v>
+        <v>0.002429028856313178</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.137659295283953</v>
+        <v>0.6631091947072605</v>
       </c>
       <c r="L11">
-        <v>0.4804534811785572</v>
+        <v>0.1861473032891041</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.092190471549827</v>
+        <v>2.857072365643887</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.59119896217365</v>
+        <v>1.119231409181225</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08075158126947457</v>
+        <v>0.04178205294545023</v>
       </c>
       <c r="E12">
-        <v>0.1381230904256583</v>
+        <v>0.3288250947045821</v>
       </c>
       <c r="F12">
-        <v>0.772128516842443</v>
+        <v>0.8416914340227635</v>
       </c>
       <c r="G12">
-        <v>0.0007845498026595006</v>
+        <v>0.002428382011375872</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.187583671945845</v>
+        <v>0.6788259852859824</v>
       </c>
       <c r="L12">
-        <v>0.4931444559993423</v>
+        <v>0.1896417061123401</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.120302269193417</v>
+        <v>2.858483321313827</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.583097079836506</v>
+        <v>1.11724831374238</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08043300036077738</v>
+        <v>0.04167164044604021</v>
       </c>
       <c r="E13">
-        <v>0.1383137934971295</v>
+        <v>0.3289811761957413</v>
       </c>
       <c r="F13">
-        <v>0.7692558500540656</v>
+        <v>0.8413066982845834</v>
       </c>
       <c r="G13">
-        <v>0.0007847875144653565</v>
+        <v>0.002428520759394584</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.176827602734193</v>
+        <v>0.6754422633338208</v>
       </c>
       <c r="L13">
-        <v>0.4904084195188005</v>
+        <v>0.1888888285036927</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.114207003100063</v>
+        <v>2.858167766573985</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.556718191310296</v>
+        <v>1.110792293401914</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07939409823480048</v>
+        <v>0.04131130127240823</v>
       </c>
       <c r="E14">
-        <v>0.1389436128433381</v>
+        <v>0.3294937956561128</v>
       </c>
       <c r="F14">
-        <v>0.7599368154460961</v>
+        <v>0.8400653605775403</v>
       </c>
       <c r="G14">
-        <v>0.0007855643411283415</v>
+        <v>0.002428975386670359</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.141764849646506</v>
+        <v>0.6644027507123837</v>
       </c>
       <c r="L14">
-        <v>0.4814963226060911</v>
+        <v>0.186434656634475</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.094484931304123</v>
+        <v>2.857183182943004</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.540592995840058</v>
+        <v>1.106846474798516</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.078757779299643</v>
+        <v>0.04109038379708352</v>
       </c>
       <c r="E15">
-        <v>0.1393354255178032</v>
+        <v>0.3298105594309604</v>
       </c>
       <c r="F15">
-        <v>0.7542661108280129</v>
+        <v>0.839315277341683</v>
       </c>
       <c r="G15">
-        <v>0.0007860414070275741</v>
+        <v>0.002429255504575506</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.120299138930193</v>
+        <v>0.6576373170060776</v>
       </c>
       <c r="L15">
-        <v>0.4760454805174135</v>
+        <v>0.1849322723120537</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.082523031480093</v>
+        <v>2.856614292742307</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.44866633832072</v>
+        <v>1.084367989611167</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07511159895619102</v>
+        <v>0.03982135944992393</v>
       </c>
       <c r="E16">
-        <v>0.1416716851482676</v>
+        <v>0.3316682680053589</v>
       </c>
       <c r="F16">
-        <v>0.7223256254110026</v>
+        <v>0.8351742468076537</v>
       </c>
       <c r="G16">
-        <v>0.0007887946572414766</v>
+        <v>0.002430886009251765</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.997444513466206</v>
+        <v>0.6188155949441239</v>
       </c>
       <c r="L16">
-        <v>0.444926311556074</v>
+        <v>0.1763360770413414</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.015734146922824</v>
+        <v>2.853878100136114</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.392679846753083</v>
+        <v>1.070697600564472</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07287475729883397</v>
+        <v>0.03904016667171106</v>
       </c>
       <c r="E17">
-        <v>0.1431844753672102</v>
+        <v>0.3328458178741673</v>
       </c>
       <c r="F17">
-        <v>0.7032079214533979</v>
+        <v>0.832774251032518</v>
       </c>
       <c r="G17">
-        <v>0.0007905014202882344</v>
+        <v>0.002431908861740376</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.922200563429726</v>
+        <v>0.594954155605933</v>
       </c>
       <c r="L17">
-        <v>0.4259337451541825</v>
+        <v>0.1710745954977568</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.976273108667357</v>
+        <v>2.852666746624351</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.360619542062665</v>
+        <v>1.062878801657945</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07158805901546827</v>
+        <v>0.03858986607522752</v>
       </c>
       <c r="E18">
-        <v>0.1440832248454988</v>
+        <v>0.3335370496012295</v>
       </c>
       <c r="F18">
-        <v>0.6923796421652213</v>
+        <v>0.8314454095836936</v>
       </c>
       <c r="G18">
-        <v>0.0007914897928942345</v>
+        <v>0.002432505500210827</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.878961259911364</v>
+        <v>0.5812131835484422</v>
       </c>
       <c r="L18">
-        <v>0.4150431597388433</v>
+        <v>0.1680527754094641</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.954109131307547</v>
+        <v>2.85214160253841</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.349788051236999</v>
+        <v>1.060239070658866</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07115237277455577</v>
+        <v>0.0384372346606483</v>
       </c>
       <c r="E19">
-        <v>0.1443923872473238</v>
+        <v>0.33377348290316</v>
       </c>
       <c r="F19">
-        <v>0.6887414873589393</v>
+        <v>0.8310043423375362</v>
       </c>
       <c r="G19">
-        <v>0.0007918256033358864</v>
+        <v>0.002432708942820746</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.864327296131165</v>
+        <v>0.5765579152296425</v>
       </c>
       <c r="L19">
-        <v>0.4113612983284156</v>
+        <v>0.1670304055874681</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.946694240519577</v>
+        <v>2.851993259342123</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.398624865120894</v>
+        <v>1.072148281602693</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0731128834129251</v>
+        <v>0.03912342750762576</v>
       </c>
       <c r="E20">
-        <v>0.143020459412643</v>
+        <v>0.3327190234709683</v>
       </c>
       <c r="F20">
-        <v>0.7052255099800391</v>
+        <v>0.8330243966251487</v>
       </c>
       <c r="G20">
-        <v>0.0007903190441245722</v>
+        <v>0.002431799116665187</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.930206231973159</v>
+        <v>0.5974959600891054</v>
       </c>
       <c r="L20">
-        <v>0.4279520184821877</v>
+        <v>0.1716342298971938</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.980418143809203</v>
+        <v>2.852777935527484</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.564459460707695</v>
+        <v>1.112686774976424</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07969924022890496</v>
+        <v>0.04141718320908438</v>
       </c>
       <c r="E21">
-        <v>0.1387573593479186</v>
+        <v>0.3293426497547038</v>
       </c>
       <c r="F21">
-        <v>0.7626661878331049</v>
+        <v>0.8404278307726685</v>
       </c>
       <c r="G21">
-        <v>0.0007853359114913248</v>
+        <v>0.00242884150894231</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.152061250246106</v>
+        <v>0.6676460358796135</v>
       </c>
       <c r="L21">
-        <v>0.4841123232819342</v>
+        <v>0.1871553259419727</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.10025296449794</v>
+        <v>2.857465252094443</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.67428045146508</v>
+        <v>1.139569951213673</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08400521641559067</v>
+        <v>0.04290738645815395</v>
       </c>
       <c r="E22">
-        <v>0.1362394093554808</v>
+        <v>0.3272599689314095</v>
       </c>
       <c r="F22">
-        <v>0.8018637584719812</v>
+        <v>0.8457260949196268</v>
       </c>
       <c r="G22">
-        <v>0.0007821349840972783</v>
+        <v>0.002426982236052597</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.297542030414917</v>
+        <v>0.713341041473484</v>
       </c>
       <c r="L22">
-        <v>0.5211706475135855</v>
+        <v>0.1973381440912902</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.183811226828396</v>
+        <v>2.862058922936029</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.615526335102629</v>
+        <v>1.125186467170209</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08170677780345414</v>
+        <v>0.04211285982196955</v>
       </c>
       <c r="E23">
-        <v>0.1375580745420848</v>
+        <v>0.3283601972540033</v>
       </c>
       <c r="F23">
-        <v>0.7807834218573504</v>
+        <v>0.8428562286317316</v>
       </c>
       <c r="G23">
-        <v>0.0007838384573790974</v>
+        <v>0.00242796784133742</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.219844733484081</v>
+        <v>0.6889669254081809</v>
       </c>
       <c r="L23">
-        <v>0.5013566354220984</v>
+        <v>0.1918998581506628</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.138710234798197</v>
+        <v>2.859467071101477</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.395936728420025</v>
+        <v>1.071492302547568</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07300522883006977</v>
+        <v>0.03908578896443515</v>
       </c>
       <c r="E24">
-        <v>0.1430945207590923</v>
+        <v>0.3327763028550557</v>
       </c>
       <c r="F24">
-        <v>0.7043128530615377</v>
+        <v>0.8329111471066852</v>
       </c>
       <c r="G24">
-        <v>0.0007904014741420195</v>
+        <v>0.002431848705671329</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.926586810143505</v>
+        <v>0.5963468809752328</v>
       </c>
       <c r="L24">
-        <v>0.4270394689686157</v>
+        <v>0.1713812095988487</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.978542550656755</v>
+        <v>2.852727133518329</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.164400172980919</v>
+        <v>1.015260196511463</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06361311990291085</v>
+        <v>0.03578326359281192</v>
       </c>
       <c r="E25">
-        <v>0.1501544641666381</v>
+        <v>0.3380726792111144</v>
       </c>
       <c r="F25">
-        <v>0.6281575788249327</v>
+        <v>0.8241551347096063</v>
       </c>
       <c r="G25">
-        <v>0.0007977383329685944</v>
+        <v>0.002436353226111658</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.611684445664508</v>
+        <v>0.4958129687741746</v>
       </c>
       <c r="L25">
-        <v>0.348126486571573</v>
+        <v>0.1494187936663991</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.825906756887008</v>
+        <v>2.852015919175102</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_226/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_226/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9753132958449271</v>
+        <v>0.9976019791807573</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03331992211473533</v>
+        <v>0.05667883361362414</v>
       </c>
       <c r="E2">
-        <v>0.3424319813764996</v>
+        <v>0.1562243315628837</v>
       </c>
       <c r="F2">
-        <v>0.8193982407045368</v>
+        <v>0.5767231605740619</v>
       </c>
       <c r="G2">
-        <v>0.002439946514007917</v>
+        <v>0.0008033812484343868</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4212605303673342</v>
+        <v>1.380332950706105</v>
       </c>
       <c r="L2">
-        <v>0.1333941180518678</v>
+        <v>0.2908115293201092</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.857116685996772</v>
+        <v>1.728417205213987</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9491538420964787</v>
+        <v>0.8864494160750098</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0316309631125975</v>
+        <v>0.05196153380403246</v>
       </c>
       <c r="E3">
-        <v>0.3456736679843964</v>
+        <v>0.1608522424825924</v>
       </c>
       <c r="F3">
-        <v>0.8172262884772081</v>
+        <v>0.5443919184588353</v>
       </c>
       <c r="G3">
-        <v>0.002442555695383798</v>
+        <v>0.0008073646093982298</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3704118873006621</v>
+        <v>1.223542741715107</v>
       </c>
       <c r="L3">
-        <v>0.1226253742858887</v>
+        <v>0.2523307561471171</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.864074215073288</v>
+        <v>1.670540335376472</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9335441425416207</v>
+        <v>0.8190091017868042</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03058441056181493</v>
+        <v>0.0490545118197474</v>
       </c>
       <c r="E4">
-        <v>0.3478060213873846</v>
+        <v>0.163938373257416</v>
       </c>
       <c r="F4">
-        <v>0.8164108716804606</v>
+        <v>0.5256743700076996</v>
       </c>
       <c r="G4">
-        <v>0.002444244022874557</v>
+        <v>0.0008098916194032022</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3390339527621506</v>
+        <v>1.127177851455116</v>
       </c>
       <c r="L4">
-        <v>0.116058604185767</v>
+        <v>0.2288429121998092</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.870070639630171</v>
+        <v>1.638709072980646</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9272972728535933</v>
+        <v>0.7917129224904897</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03015556080625004</v>
+        <v>0.04786699298979613</v>
       </c>
       <c r="E5">
-        <v>0.3487106935762103</v>
+        <v>0.1652561988556833</v>
       </c>
       <c r="F5">
-        <v>0.8162088370362426</v>
+        <v>0.5183163280524639</v>
       </c>
       <c r="G5">
-        <v>0.002444953790356842</v>
+        <v>0.0008109421950467118</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3262084976456379</v>
+        <v>1.08787203064071</v>
       </c>
       <c r="L5">
-        <v>0.1133940718436008</v>
+        <v>0.2193011931287714</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.872947636668414</v>
+        <v>1.626622414855092</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9262668968257231</v>
+        <v>0.7871911895135213</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03008420813225854</v>
+        <v>0.0476696260184184</v>
       </c>
       <c r="E6">
-        <v>0.348863071970797</v>
+        <v>0.1654786219963675</v>
       </c>
       <c r="F6">
-        <v>0.8161831550903855</v>
+        <v>0.5171103661245766</v>
       </c>
       <c r="G6">
-        <v>0.0024450729628576</v>
+        <v>0.0008111179093789976</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.324076524456558</v>
+        <v>1.081342785860073</v>
       </c>
       <c r="L6">
-        <v>0.1129523243910882</v>
+        <v>0.2177184461544783</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.87345152978375</v>
+        <v>1.624667549752274</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9334594320140468</v>
+        <v>0.8186402432567377</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03057863651228132</v>
+        <v>0.04903850848503311</v>
       </c>
       <c r="E7">
-        <v>0.3478180774433497</v>
+        <v>0.1639559038295832</v>
       </c>
       <c r="F7">
-        <v>0.8164076196358252</v>
+        <v>0.5255740657390362</v>
       </c>
       <c r="G7">
-        <v>0.002444253506908039</v>
+        <v>0.0008099057031440541</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3388611399170429</v>
+        <v>1.126647922425519</v>
       </c>
       <c r="L7">
-        <v>0.1160226227649588</v>
+        <v>0.2287141155184003</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.87010768528512</v>
+        <v>1.638542545669708</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9661999116491415</v>
+        <v>0.9590984697491933</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03273955983978283</v>
+        <v>0.05505436388622797</v>
       </c>
       <c r="E8">
-        <v>0.3435202711259695</v>
+        <v>0.157768474981534</v>
       </c>
       <c r="F8">
-        <v>0.8185417759568097</v>
+        <v>0.5653303318563729</v>
       </c>
       <c r="G8">
-        <v>0.002440828291598722</v>
+        <v>0.0008047380889683085</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4037608382500082</v>
+        <v>1.326283631137869</v>
       </c>
       <c r="L8">
-        <v>0.1296717092103279</v>
+        <v>0.2775111044695535</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.859157584940334</v>
+        <v>1.707663219722349</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.033976342087897</v>
+        <v>1.241764572058372</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0369006808469976</v>
+        <v>0.0667789450046925</v>
       </c>
       <c r="E9">
-        <v>0.3362172770820973</v>
+        <v>0.1476368033456126</v>
       </c>
       <c r="F9">
-        <v>0.8268417317479688</v>
+        <v>0.6530386954535032</v>
       </c>
       <c r="G9">
-        <v>0.002434793086831311</v>
+        <v>0.0007952307264687855</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5297610944564042</v>
+        <v>1.717635524693065</v>
       </c>
       <c r="L9">
-        <v>0.1567941721438189</v>
+        <v>0.3745677819258617</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.85138073124628</v>
+        <v>1.874854497654923</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.085933833380437</v>
+        <v>1.455074561413255</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03991036568707074</v>
+        <v>0.07536682933912431</v>
       </c>
       <c r="E10">
-        <v>0.331535789340105</v>
+        <v>0.141502988727698</v>
       </c>
       <c r="F10">
-        <v>0.8354550928174831</v>
+        <v>0.7245303507332324</v>
       </c>
       <c r="G10">
-        <v>0.002430770420744921</v>
+        <v>0.0007886007976685163</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6215360972941255</v>
+        <v>2.00603611151783</v>
       </c>
       <c r="L10">
-        <v>0.1769370486204025</v>
+        <v>0.4470982117228459</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.854039583176956</v>
+        <v>2.020310762899982</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.110037216949991</v>
+        <v>1.553632641388589</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04126906689613463</v>
+        <v>0.07927241252816231</v>
       </c>
       <c r="E11">
-        <v>0.3295542063013048</v>
+        <v>0.1390181829988801</v>
       </c>
       <c r="F11">
-        <v>0.8399213124744023</v>
+        <v>0.7588501959114637</v>
       </c>
       <c r="G11">
-        <v>0.002429028856313178</v>
+        <v>0.0007856554970017693</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6631091947072605</v>
+        <v>2.137659295283925</v>
       </c>
       <c r="L11">
-        <v>0.1861473032891041</v>
+        <v>0.4804534811785857</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.857072365643887</v>
+        <v>2.092190471549742</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.119231409181225</v>
+        <v>1.591198962173735</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04178205294545023</v>
+        <v>0.08075158126958115</v>
       </c>
       <c r="E12">
-        <v>0.3288250947045821</v>
+        <v>0.1381230904256565</v>
       </c>
       <c r="F12">
-        <v>0.8416914340227635</v>
+        <v>0.772128516842443</v>
       </c>
       <c r="G12">
-        <v>0.002428382011375872</v>
+        <v>0.0007845498026592111</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6788259852859824</v>
+        <v>2.18758367194593</v>
       </c>
       <c r="L12">
-        <v>0.1896417061123401</v>
+        <v>0.4931444559993565</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.858483321313827</v>
+        <v>2.12030226919336</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.11724831374238</v>
+        <v>1.583097079836477</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04167164044604021</v>
+        <v>0.08043300036049317</v>
       </c>
       <c r="E13">
-        <v>0.3289811761957413</v>
+        <v>0.1383137934971366</v>
       </c>
       <c r="F13">
-        <v>0.8413066982845834</v>
+        <v>0.7692558500540656</v>
       </c>
       <c r="G13">
-        <v>0.002428520759394584</v>
+        <v>0.0007847875144638589</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6754422633338208</v>
+        <v>2.176827602734335</v>
       </c>
       <c r="L13">
-        <v>0.1888888285036927</v>
+        <v>0.4904084195189569</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.858167766573985</v>
+        <v>2.114207003100063</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.110792293401914</v>
+        <v>1.556718191310154</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04131130127240823</v>
+        <v>0.07939409823492127</v>
       </c>
       <c r="E14">
-        <v>0.3294937956561128</v>
+        <v>0.1389436128433417</v>
       </c>
       <c r="F14">
-        <v>0.8400653605775403</v>
+        <v>0.7599368154460819</v>
       </c>
       <c r="G14">
-        <v>0.002428975386670359</v>
+        <v>0.0007855643411290303</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6644027507123837</v>
+        <v>2.141764849646535</v>
       </c>
       <c r="L14">
-        <v>0.186434656634475</v>
+        <v>0.4814963226060485</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.857183182943004</v>
+        <v>2.094484931304123</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.106846474798516</v>
+        <v>1.540592995840029</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04109038379708352</v>
+        <v>0.07875777929960037</v>
       </c>
       <c r="E15">
-        <v>0.3298105594309604</v>
+        <v>0.1393354255177996</v>
       </c>
       <c r="F15">
-        <v>0.839315277341683</v>
+        <v>0.7542661108280129</v>
       </c>
       <c r="G15">
-        <v>0.002429255504575506</v>
+        <v>0.0007860414070284219</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6576373170060776</v>
+        <v>2.120299138930335</v>
       </c>
       <c r="L15">
-        <v>0.1849322723120537</v>
+        <v>0.4760454805175272</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.856614292742307</v>
+        <v>2.082523031480036</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.084367989611167</v>
+        <v>1.44866633832072</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03982135944992393</v>
+        <v>0.07511159895629049</v>
       </c>
       <c r="E16">
-        <v>0.3316682680053589</v>
+        <v>0.1416716851482711</v>
       </c>
       <c r="F16">
-        <v>0.8351742468076537</v>
+        <v>0.7223256254110026</v>
       </c>
       <c r="G16">
-        <v>0.002430886009251765</v>
+        <v>0.0007887946572419119</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6188155949441239</v>
+        <v>1.997444513466121</v>
       </c>
       <c r="L16">
-        <v>0.1763360770413414</v>
+        <v>0.4449263115561024</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.853878100136114</v>
+        <v>2.015734146922824</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.070697600564472</v>
+        <v>1.392679846753111</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03904016667171106</v>
+        <v>0.07287475729884108</v>
       </c>
       <c r="E17">
-        <v>0.3328458178741673</v>
+        <v>0.143184475367228</v>
       </c>
       <c r="F17">
-        <v>0.832774251032518</v>
+        <v>0.7032079214533979</v>
       </c>
       <c r="G17">
-        <v>0.002431908861740376</v>
+        <v>0.0007905014202893228</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.594954155605933</v>
+        <v>1.922200563429755</v>
       </c>
       <c r="L17">
-        <v>0.1710745954977568</v>
+        <v>0.4259337451542109</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.852666746624351</v>
+        <v>1.9762731086673</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.062878801657945</v>
+        <v>1.360619542062636</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03858986607522752</v>
+        <v>0.07158805901546117</v>
       </c>
       <c r="E18">
-        <v>0.3335370496012295</v>
+        <v>0.1440832248454829</v>
       </c>
       <c r="F18">
-        <v>0.8314454095836936</v>
+        <v>0.6923796421652355</v>
       </c>
       <c r="G18">
-        <v>0.002432505500210827</v>
+        <v>0.000791489792895659</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5812131835484422</v>
+        <v>1.878961259911364</v>
       </c>
       <c r="L18">
-        <v>0.1680527754094641</v>
+        <v>0.4150431597387438</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.85214160253841</v>
+        <v>1.95410913130749</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.060239070658866</v>
+        <v>1.349788051237027</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0384372346606483</v>
+        <v>0.07115237277437814</v>
       </c>
       <c r="E19">
-        <v>0.33377348290316</v>
+        <v>0.1443923872473256</v>
       </c>
       <c r="F19">
-        <v>0.8310043423375362</v>
+        <v>0.6887414873589393</v>
       </c>
       <c r="G19">
-        <v>0.002432708942820746</v>
+        <v>0.0007918256033074055</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5765579152296425</v>
+        <v>1.864327296131108</v>
       </c>
       <c r="L19">
-        <v>0.1670304055874681</v>
+        <v>0.4113612983285293</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.851993259342123</v>
+        <v>1.946694240519577</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.072148281602693</v>
+        <v>1.398624865120865</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03912342750762576</v>
+        <v>0.07311288341281852</v>
       </c>
       <c r="E20">
-        <v>0.3327190234709683</v>
+        <v>0.143020459412643</v>
       </c>
       <c r="F20">
-        <v>0.8330243966251487</v>
+        <v>0.7052255099800391</v>
       </c>
       <c r="G20">
-        <v>0.002431799116665187</v>
+        <v>0.0007903190440953828</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5974959600891054</v>
+        <v>1.930206231973244</v>
       </c>
       <c r="L20">
-        <v>0.1716342298971938</v>
+        <v>0.4279520184822729</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.852777935527484</v>
+        <v>1.980418143809231</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.112686774976424</v>
+        <v>1.564459460707525</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04141718320908438</v>
+        <v>0.07969924022901154</v>
       </c>
       <c r="E21">
-        <v>0.3293426497547038</v>
+        <v>0.1387573593479239</v>
       </c>
       <c r="F21">
-        <v>0.8404278307726685</v>
+        <v>0.7626661878330907</v>
       </c>
       <c r="G21">
-        <v>0.00242884150894231</v>
+        <v>0.0007853359115199689</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6676460358796135</v>
+        <v>2.152061250246021</v>
       </c>
       <c r="L21">
-        <v>0.1871553259419727</v>
+        <v>0.4841123232818347</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.857465252094443</v>
+        <v>2.100252964497827</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.139569951213673</v>
+        <v>1.674280451465307</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04290738645815395</v>
+        <v>0.0840052164154983</v>
       </c>
       <c r="E22">
-        <v>0.3272599689314095</v>
+        <v>0.1362394093554524</v>
       </c>
       <c r="F22">
-        <v>0.8457260949196268</v>
+        <v>0.801863758471967</v>
       </c>
       <c r="G22">
-        <v>0.002426982236052597</v>
+        <v>0.0007821349840979553</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.713341041473484</v>
+        <v>2.297542030414974</v>
       </c>
       <c r="L22">
-        <v>0.1973381440912902</v>
+        <v>0.5211706475136282</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.862058922936029</v>
+        <v>2.18381122682834</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.125186467170209</v>
+        <v>1.615526335102714</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04211285982196955</v>
+        <v>0.08170677780327651</v>
       </c>
       <c r="E23">
-        <v>0.3283601972540033</v>
+        <v>0.137558074542067</v>
       </c>
       <c r="F23">
-        <v>0.8428562286317316</v>
+        <v>0.7807834218573504</v>
       </c>
       <c r="G23">
-        <v>0.00242796784133742</v>
+        <v>0.0007838384573790071</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6889669254081809</v>
+        <v>2.219844733483995</v>
       </c>
       <c r="L23">
-        <v>0.1918998581506628</v>
+        <v>0.5013566354220984</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.859467071101477</v>
+        <v>2.13871023479814</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.071492302547568</v>
+        <v>1.395936728420025</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03908578896443515</v>
+        <v>0.07300522883001292</v>
       </c>
       <c r="E24">
-        <v>0.3327763028550557</v>
+        <v>0.1430945207590888</v>
       </c>
       <c r="F24">
-        <v>0.8329111471066852</v>
+        <v>0.7043128530615377</v>
       </c>
       <c r="G24">
-        <v>0.002431848705671329</v>
+        <v>0.0007904014741441477</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5963468809752328</v>
+        <v>1.926586810143618</v>
       </c>
       <c r="L24">
-        <v>0.1713812095988487</v>
+        <v>0.4270394689687009</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.852727133518329</v>
+        <v>1.978542550656755</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.015260196511463</v>
+        <v>1.164400172980891</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03578326359281192</v>
+        <v>0.06361311990308849</v>
       </c>
       <c r="E25">
-        <v>0.3380726792111144</v>
+        <v>0.1501544641666221</v>
       </c>
       <c r="F25">
-        <v>0.8241551347096063</v>
+        <v>0.6281575788249398</v>
       </c>
       <c r="G25">
-        <v>0.002436353226111658</v>
+        <v>0.0007977383329963588</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4958129687741746</v>
+        <v>1.611684445664451</v>
       </c>
       <c r="L25">
-        <v>0.1494187936663991</v>
+        <v>0.3481264865713882</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.852015919175102</v>
+        <v>1.825906756887036</v>
       </c>
     </row>
   </sheetData>
